--- a/ESPN sports website/IPL/Kolkata Knight Riders/Rinku Singh.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Rinku Singh.xlsx
@@ -480,31 +480,31 @@
         <v>Rinku Singh</v>
       </c>
       <c r="C3" t="str">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="str">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>121.05</v>
+        <v>60.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>May 09, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Super Giants won by 75 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Rinku Singh</v>
       </c>
       <c r="C4" t="str">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D4" t="str">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="str">
-        <v>143.75</v>
+        <v>266.66</v>
       </c>
       <c r="H4" t="str">
-        <v>Delhi Capitals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>April 28, 2022</v>
+        <v>May 18, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Super Giants won by 2 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Rinku Singh</v>
       </c>
       <c r="C5" t="str">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" t="str">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>83.33</v>
+        <v>121.05</v>
       </c>
       <c r="H5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I5" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>May 14, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>KKR won by 54 runs</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         <v>Rinku Singh</v>
       </c>
       <c r="C7" t="str">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D7" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>266.66</v>
+        <v>143.75</v>
       </c>
       <c r="H7" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J7" t="str">
-        <v>May 18, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Giants won by 2 runs</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="8">
@@ -655,10 +655,10 @@
         <v>Rinku Singh</v>
       </c>
       <c r="C8" t="str">
+        <v>5</v>
+      </c>
+      <c r="D8" t="str">
         <v>6</v>
-      </c>
-      <c r="D8" t="str">
-        <v>10</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>60.00</v>
+        <v>83.33</v>
       </c>
       <c r="H8" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I8" t="str">
         <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>May 07, 2022</v>
+        <v>May 14, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>KKR won by 54 runs</v>
       </c>
     </row>
   </sheetData>
